--- a/DATASET_UNDERSTANDING_PRIMARY_KEY_AND_INTER_RELATION.xlsx
+++ b/DATASET_UNDERSTANDING_PRIMARY_KEY_AND_INTER_RELATION.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd29fd864674f954/Desktop/NUS MURUGA 2022/APM PRACTICE MODULE PROJECT SUBMISSION-LAPTOP-ND8VJTQM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24D428D-2A80-43AE-B61F-E187865C2824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFDFD3E-90B0-4A6F-AA7F-6D3161D66F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{28CE0D4B-6851-455C-879A-CD3FC2D5CA3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{28CE0D4B-6851-455C-879A-CD3FC2D5CA3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="relation between  datasets" sheetId="2" r:id="rId1"/>
+    <sheet name="relation between datasets Image" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -336,6 +337,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484571</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02E2997-9E68-4DFB-82A1-60FDB9034E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9628571" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -635,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348B11A4-63EF-484C-8730-E3BA99E94955}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29775,4 +29825,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59223BE3-8827-4571-8085-D2693C5D0DF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>